--- a/Code/Results/Cases/Case_0_137/line/parallel.xlsx
+++ b/Code/Results/Cases/Case_0_137/line/parallel.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15">

--- a/Code/Results/Cases/Case_0_137/line/parallel.xlsx
+++ b/Code/Results/Cases/Case_0_137/line/parallel.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
